--- a/oop_basics/programmig paradigms .xlsx
+++ b/oop_basics/programmig paradigms .xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\visual studio code\HTML TOTORIAL\PythonCourse\oop_basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81039942-B21D-4B80-AE20-DFE1AC7E190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462A8852-53F6-4913-A99D-DA71A2EC349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,82 +25,539 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Paradigms in oop(object oriented programming)</t>
-  </si>
-  <si>
-    <t>Paradigm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Procedural</t>
   </si>
   <si>
-    <t>OOP</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t>Declarative</t>
-  </si>
-  <si>
-    <t>Logic</t>
-  </si>
-  <si>
-    <t>Event-Driven</t>
-  </si>
-  <si>
-    <t>Concurrent</t>
-  </si>
-  <si>
-    <t>Task (Hospital Scenario)</t>
-  </si>
-  <si>
-    <t>Write the step-by-step logic for admitting a patient, including: collecting personal information, assigning a room, and notifying the attending nurse.</t>
-  </si>
-  <si>
-    <t>Identify 3 objects in your hospital program (e.g., Patient, Doctor, Appointment) and define their attributes and methods. 
-Example: 
-Patient attributes: name, ID, symptoms 
-Patient methods: admit(), get_history()</t>
-  </si>
-  <si>
-    <t>Describe 2 data transformations that do not modify the original patient data. 
-Example: filter all patients with a specific condition from the database, or map a list of patient vital signs to convert them to a different unit.</t>
-  </si>
-  <si>
-    <t>Specify what your program should achieve without detailing how it will do it. 
-Example: "Provide a report of all patients currently in the ICU who have been there for more than 48 hours."</t>
-  </si>
-  <si>
-    <t>Define rules or conditions for your program and provide an example question for your program. 
-Example: Rule: "If a patient's vital signs are critical (vitals &gt; threshold), they are automatically assigned to the ER." 
-Question: "What is the appropriate triage level for a new patient with a fever of 103°F and a cough?"</t>
-  </si>
-  <si>
-    <t>List events in your hospital program and the actions triggered by them. 
-Example: Event: A patient's heart monitor alarm goes off. Action: The system sends an alert to the nearest nurse and updates the patient's record.</t>
-  </si>
-  <si>
-    <t>Describe tasks that can happen simultaneously in your Python program. 
-Example: A background task to generate daily patient reports while a separate task handles real-time updates from multiple patient vital sign monitors.</t>
+    <t>Paradigms</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Get a list of all sick animals. - Find exhibits that are too full. - Find all staff members working at the elephant exhibit.</t>
+  </si>
+  <si>
+    <t>Reading sensor data from one animal while saving data for another animal to the database at the same time. -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A user can work on the main screen while a report is being created in the background.</t>
+  </si>
+  <si>
+    <t>Paradigms in programming</t>
+  </si>
+  <si>
+    <t>OOP 🦁</t>
+  </si>
+  <si>
+    <t>Functional 🌿</t>
+  </si>
+  <si>
+    <t>Declarative 📋</t>
+  </si>
+  <si>
+    <t>Logic 🧠</t>
+  </si>
+  <si>
+    <t>Event-Driven ⚙️</t>
+  </si>
+  <si>
+    <t>Concurrent ⚡</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Start feeding routine  =&gt;   Get list of animals to feed =&gt;. For each animal, find its food and give it to the animal.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Finish routine.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A function that takes your full list of animals and gives you a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of only the lions. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. A function that takes your animal data and gives you a new list showing the average age for each exhibit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Exhibit =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atributes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ID, theme, list of animals inside. - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Add an animal, remove an animal. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Objects: Animal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atributes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Name, species, health. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update health, get its age. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">StaffMember  =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atributes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Name, role, assigned exhibits. - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Log hours, do an inspection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rule</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>IF an animal is sick AND is rare, THEN it's a top priority.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Is the injured monkey a top priority?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Event:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An exhibit door opens. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Check if an animal escaped. If so, trigger an escape alert.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Event:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A new animal is added. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Automatically create its medical records and assign it to a zookeeper</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -115,21 +572,104 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -139,25 +679,91 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -165,19 +771,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,199 +1088,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27725A4D-A4AC-4126-B08C-A0F486C6B8D7}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="127.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="10" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="127.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="30.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B9" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="25.5" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B11" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="25.5" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="25.5" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>